--- a/ClueBoardLayout.xlsx
+++ b/ClueBoardLayout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\Desktop\Software Engineering\ClueGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\EclipseProjects\ClueGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ClueBoardLayout.xlsx
+++ b/ClueBoardLayout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="30">
   <si>
     <t>W</t>
   </si>
@@ -94,12 +94,33 @@
   <si>
     <t>S</t>
   </si>
+  <si>
+    <t>Number of Doors: 20</t>
+  </si>
+  <si>
+    <t>White: Door Direction Tests (in BoardInitTest)</t>
+  </si>
+  <si>
+    <t>Orange: Adjacency List Tests (inside room)</t>
+  </si>
+  <si>
+    <t>Purple: Adjacency List Tests (Room exits)</t>
+  </si>
+  <si>
+    <t>Green: Adjacency List Test (Beside room entrance)</t>
+  </si>
+  <si>
+    <t>Pink: Walkway Scenarios</t>
+  </si>
+  <si>
+    <t>Dark Blue: Test Targets</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +128,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +152,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,14 +210,280 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -172,6 +514,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFCC0099"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -480,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +1042,7 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
@@ -736,7 +1084,7 @@
       <c r="S3" t="s">
         <v>0</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="U3" t="s">
@@ -875,7 +1223,7 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -905,7 +1253,7 @@
       <c r="L5" t="s">
         <v>5</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="N5" t="s">
@@ -970,7 +1318,7 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
@@ -1077,7 +1425,7 @@
       <c r="F7" t="s">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H7" t="s">
@@ -1154,7 +1502,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
@@ -1223,7 +1571,7 @@
       <c r="W8" t="s">
         <v>0</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Y8" t="s">
@@ -1333,7 +1681,7 @@
       <c r="AB9" t="s">
         <v>8</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AD9" t="s">
@@ -1621,7 +1969,7 @@
       <c r="AC12" t="s">
         <v>0</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AE12">
@@ -1701,7 +2049,7 @@
       <c r="X13" t="s">
         <v>0</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="Z13" s="1" t="s">
@@ -1754,19 +2102,19 @@
       <c r="J14" t="s">
         <v>1</v>
       </c>
-      <c r="K14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="K14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M14" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P14" t="s">
@@ -1888,7 +2236,7 @@
       <c r="W15" t="s">
         <v>0</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="Y15" t="s">
@@ -1914,13 +2262,13 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
@@ -1983,7 +2331,7 @@
       <c r="W16" t="s">
         <v>0</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="Y16" t="s">
@@ -2018,7 +2366,7 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E17" t="s">
@@ -2051,7 +2399,7 @@
       <c r="N17" t="s">
         <v>0</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="P17" t="s">
@@ -2324,7 +2672,7 @@
       <c r="J20" t="s">
         <v>1</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="9" t="s">
         <v>0</v>
       </c>
       <c r="L20" t="s">
@@ -2428,7 +2776,7 @@
       <c r="M21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="O21" t="s">
@@ -2674,7 +3022,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B24" t="s">
@@ -2716,7 +3064,7 @@
       <c r="N24" t="s">
         <v>15</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="8" t="s">
         <v>0</v>
       </c>
       <c r="P24" t="s">
@@ -2752,7 +3100,7 @@
       <c r="Z24" t="s">
         <v>19</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AA24" s="9" t="s">
         <v>0</v>
       </c>
       <c r="AB24" t="s">
@@ -2775,13 +3123,13 @@
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F25" t="s">
@@ -2826,7 +3174,7 @@
       <c r="S25" t="s">
         <v>0</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="U25" t="s">
@@ -3066,7 +3414,7 @@
       <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
@@ -3114,7 +3462,7 @@
       <c r="T28" t="s">
         <v>0</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" s="9" t="s">
         <v>0</v>
       </c>
       <c r="V28" t="s">
@@ -3331,7 +3679,7 @@
       <c r="AC30" t="s">
         <v>17</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AD30" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AE30">
@@ -3431,22 +3779,62 @@
         <v>29</v>
       </c>
     </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="14"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AD1 AD32:AD51 A9:AD12 A8:W8 Y8:AD8 A29:E29 A28:D28 AB28:AD28 B24:AD24 A23:AB23 AD23 A15:AD15 A13:Y13 AA13:AD13 A20:AD20 A19:U19 W19:AD19 A26:B26 A25 U25:AD25 A14:K14 M14 O14:AD14 A22:AD22 A21:L21 N21:AD21 A30:F30 H30:AD30 G29:AD29 F28:Z28 A27:C27 E27:AD27 D26:AD26 C25:S25 A18:AD18 A16:B17 D16:AD17 A6:AD7 A5:B5 D5:AD5 A3:AD4 A2:B2 D2:AD2">
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="X">
+  <conditionalFormatting sqref="A1:AD1 AD32:AD51 A10:AD11 B8:W8 Y8:AD8 A29:E29 A28:D28 AB28:AD28 B24:N24 A23:AB23 AD23 A15:W15 A13:X13 AA13:AD13 A20:J20 A19:U19 W19:AD19 A26:B26 A25 U25:AD25 A14:J14 M14 P14:AD14 A22:AD22 A21:L21 O21:AD21 A30:F30 H30:AC30 G29:AD29 F28:T28 A27:C27 E27:AD27 D26:AD26 D25 A18:AD18 A17:B17 D16:W16 A7:F7 D5:L5 A4:AD4 A2:B2 D2:AD2 B16 A9:AB9 AD9 N5:AD5 E17:N17 A5:B6 D6:AD6 Y15:AD16 P24:Z24 F25:S25 H7:AD7 V28:Z28 A12:AC12 A3:E3 U3:AD3 G3:S3 L20:AD20 P17:AD17 AB24:AD24">
+    <cfRule type="containsText" dxfId="39" priority="2" stopIfTrue="1" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="38" priority="1" stopIfTrue="1" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:AD7 AD32:AD51 H9:AD12 H8:W8 Y8:AD8 H29:AD30 H28:Z28 AB28:AD28 H24:AD24 H23:AB23 AD23 H15:AD18 H13:Y13 AA13:AD13 H20:AD20 H19:U19 W19:AD19 H26:AD27 H25:S25 U25:AD25 H14:K14 M14 O14:AD14 H22:AD22 H21:L21 N21:AD21">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+  <conditionalFormatting sqref="H1:AD2 AD32:AD51 H10:AD11 H8:W8 Y8:AD8 H29:AD29 H28:T28 AB28:AD28 H24:N24 H23:AB23 AD23 H13:X13 AA13:AD13 H20:J20 H19:U19 W19:AD19 H26:AD27 H25:S25 U25:AD25 H14:J14 M14 P14:AD14 H22:AD22 H21:L21 O21:AD21 H9:AB9 AD9 H6:AD7 H5:L5 N5:AD5 H18:AD18 H15:W16 Y15:AD16 P24:Z24 V28:Z28 H12:AC12 H4:AD4 H3:S3 U3:AD3 L20:AD20 H30:AC30 H17:N17 P17:AD17 AB24:AD24">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="4">
       <formula>LEN(TRIM(H1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A30:F30 A29:E29 G29 A28:D28 F28:G28 A27:C27 E27:G27 A26:B26 D26:G26 A25 C25:G25 B24:G24 A18:G23 A16:B17 D16:G17 A6:G15 A5:B5 D5:G5 A3:G4 A2:B2 D2:G2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+  <conditionalFormatting sqref="A1:G1 A30:F30 A29:E29 G29 A28:D28 F28:G28 A27:C27 E27:G27 A26:B26 A25 D26:G26 B24:G24 A18:G23 A17:B17 D16:G16 A9:G15 A4:G4 A2:B2 D2:G2 B16 E17:G17 A5:B6 D5:G6 D25 F25:G25 A7:F7 B8:G8 A3:E3 G3">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="5">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ClueBoardLayout.xlsx
+++ b/ClueBoardLayout.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\Desktop\Software Engineering\ClueGame\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="7425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="31">
   <si>
     <t>W</t>
   </si>
@@ -114,6 +110,9 @@
   </si>
   <si>
     <t>Dark Blue: Test Targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -231,259 +230,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -830,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="64" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X11" t="s">
         <v>0</v>
@@ -3821,20 +3568,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD1 AD32:AD51 A10:AD11 B8:W8 Y8:AD8 A29:E29 A28:D28 AB28:AD28 B24:N24 A23:AB23 AD23 A15:W15 A13:X13 AA13:AD13 A20:J20 A19:U19 W19:AD19 A26:B26 A25 U25:AD25 A14:J14 M14 P14:AD14 A22:AD22 A21:L21 O21:AD21 A30:F30 H30:AC30 G29:AD29 F28:T28 A27:C27 E27:AD27 D26:AD26 D25 A18:AD18 A17:B17 D16:W16 A7:F7 D5:L5 A4:AD4 A2:B2 D2:AD2 B16 A9:AB9 AD9 N5:AD5 E17:N17 A5:B6 D6:AD6 Y15:AD16 P24:Z24 F25:S25 H7:AD7 V28:Z28 A12:AC12 A3:E3 U3:AD3 G3:S3 L20:AD20 P17:AD17 AB24:AD24">
-    <cfRule type="containsText" dxfId="39" priority="2" stopIfTrue="1" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="1" stopIfTrue="1" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:AD2 AD32:AD51 H10:AD11 H8:W8 Y8:AD8 H29:AD29 H28:T28 AB28:AD28 H24:N24 H23:AB23 AD23 H13:X13 AA13:AD13 H20:J20 H19:U19 W19:AD19 H26:AD27 H25:S25 U25:AD25 H14:J14 M14 P14:AD14 H22:AD22 H21:L21 O21:AD21 H9:AB9 AD9 H6:AD7 H5:L5 N5:AD5 H18:AD18 H15:W16 Y15:AD16 P24:Z24 V28:Z28 H12:AC12 H4:AD4 H3:S3 U3:AD3 L20:AD20 H30:AC30 H17:N17 P17:AD17 AB24:AD24">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(H1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1 A30:F30 A29:E29 G29 A28:D28 F28:G28 A27:C27 E27:G27 A26:B26 A25 D26:G26 B24:G24 A18:G23 A17:B17 D16:G16 A9:G15 A4:G4 A2:B2 D2:G2 B16 E17:G17 A5:B6 D5:G6 D25 F25:G25 A7:F7 B8:G8 A3:E3 G3">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ClueBoardLayout.xlsx
+++ b/ClueBoardLayout.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\EclipseProjects\ClueGame\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="5790"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="40">
   <si>
     <t>W</t>
   </si>
@@ -113,6 +117,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>QN</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>ON</t>
   </si>
 </sst>
 </file>
@@ -577,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="64" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -948,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="AA4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s">
         <v>8</v>
@@ -998,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>5</v>
@@ -1972,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="U15" t="s">
         <v>19</v>
@@ -1990,7 +2021,7 @@
         <v>22</v>
       </c>
       <c r="Z15" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AA15" t="s">
         <v>22</v>
@@ -2105,7 +2136,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -3150,7 +3181,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -3278,7 +3309,7 @@
         <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M29" t="s">
         <v>15</v>
@@ -3320,7 +3351,7 @@
         <v>17</v>
       </c>
       <c r="Z29" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="AA29" t="s">
         <v>17</v>
